--- a/modelos/OBAFAR4421378/OBAFAR4421378_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421378/OBAFAR4421378_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45015</v>
       </c>
       <c r="B2" t="n">
-        <v>291.2152255223394</v>
+        <v>290.5754713579297</v>
       </c>
       <c r="C2" t="n">
-        <v>244.6115417876946</v>
+        <v>245.4584771127165</v>
       </c>
       <c r="D2" t="n">
-        <v>339.1628761832476</v>
+        <v>341.6000449936863</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -496,13 +496,13 @@
         <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>199.4661312260881</v>
+        <v>192.6824859155697</v>
       </c>
       <c r="C3" t="n">
-        <v>146.2132258769168</v>
+        <v>136.292214683588</v>
       </c>
       <c r="D3" t="n">
-        <v>251.0648586001069</v>
+        <v>246.4869378564814</v>
       </c>
       <c r="E3" t="n">
         <v>268</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>271.5362438844169</v>
+        <v>270.6411452610765</v>
       </c>
       <c r="C4" t="n">
-        <v>219.3258069810453</v>
+        <v>212.1848800510687</v>
       </c>
       <c r="D4" t="n">
-        <v>325.4077147021832</v>
+        <v>325.0503408798673</v>
       </c>
       <c r="E4" t="n">
         <v>264</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>260.0017974964579</v>
+        <v>259.1136719693186</v>
       </c>
       <c r="C5" t="n">
-        <v>197.8485146623176</v>
+        <v>204.5988196073668</v>
       </c>
       <c r="D5" t="n">
-        <v>315.1992000071799</v>
+        <v>319.0071144672899</v>
       </c>
       <c r="E5" t="n">
         <v>212</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>249.2679438589724</v>
+        <v>249.5959472931666</v>
       </c>
       <c r="C6" t="n">
-        <v>196.3714376030629</v>
+        <v>196.6023653420543</v>
       </c>
       <c r="D6" t="n">
-        <v>301.4848010211068</v>
+        <v>299.0764387420908</v>
       </c>
       <c r="E6" t="n">
         <v>164</v>
@@ -637,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>56.79497188541077</v>
+        <v>44.10481037871851</v>
       </c>
       <c r="C2" t="n">
-        <v>7.536243884416876</v>
+        <v>6.641145261076474</v>
       </c>
       <c r="D2" t="n">
-        <v>7.536243884416876</v>
+        <v>6.641145261076474</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02854637835006393</v>
+        <v>0.02515585326165331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02854637835006393</v>
+        <v>0.02515585326165331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02814466423319577</v>
+        <v>0.02484337511222958</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -663,22 +663,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>27960.93164648684</v>
+        <v>27747.38765811646</v>
       </c>
       <c r="C3" t="n">
-        <v>167.2152255223394</v>
+        <v>166.5754713579297</v>
       </c>
       <c r="D3" t="n">
-        <v>167.2152255223394</v>
+        <v>166.5754713579297</v>
       </c>
       <c r="E3" t="n">
-        <v>1.348509883244673</v>
+        <v>1.343350575467175</v>
       </c>
       <c r="F3" t="n">
-        <v>1.348509883244673</v>
+        <v>1.343350575467175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.805438795323477</v>
+        <v>0.8035954023633702</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,22 +689,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4696.891169119781</v>
+        <v>5672.72792785835</v>
       </c>
       <c r="C4" t="n">
-        <v>68.53386877391193</v>
+        <v>75.31751408443026</v>
       </c>
       <c r="D4" t="n">
-        <v>68.53386877391193</v>
+        <v>75.31751408443026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2557233909474326</v>
+        <v>0.2810355003150383</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2557233909474326</v>
+        <v>0.2810355003150383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2932142638618917</v>
+        <v>0.3269823203056774</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -715,22 +715,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>4787.397406413907</v>
+        <v>4773.182139723559</v>
       </c>
       <c r="C5" t="n">
-        <v>69.19102114012993</v>
+        <v>69.08821997796412</v>
       </c>
       <c r="D5" t="n">
-        <v>66.63487067771513</v>
+        <v>66.35480963124262</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3731750300207265</v>
+        <v>0.3720804048136156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3731750300207265</v>
+        <v>0.3720804048136156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3080243896303038</v>
+        <v>0.3069603709580787</v>
       </c>
       <c r="H5" t="n">
         <v>0.5</v>

--- a/modelos/OBAFAR4421378/OBAFAR4421378_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421378/OBAFAR4421378_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45015</v>
       </c>
       <c r="B2" t="n">
-        <v>290.5754713579297</v>
+        <v>290.5754713579284</v>
       </c>
       <c r="C2" t="n">
-        <v>245.4584771127165</v>
+        <v>242.4112472126387</v>
       </c>
       <c r="D2" t="n">
-        <v>341.6000449936863</v>
+        <v>341.5214525842456</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -496,13 +496,13 @@
         <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>192.6824859155697</v>
+        <v>192.6824859054042</v>
       </c>
       <c r="C3" t="n">
-        <v>136.292214683588</v>
+        <v>133.7981094912452</v>
       </c>
       <c r="D3" t="n">
-        <v>246.4869378564814</v>
+        <v>244.8327162780473</v>
       </c>
       <c r="E3" t="n">
         <v>268</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>270.6411452610765</v>
+        <v>270.6411452606359</v>
       </c>
       <c r="C4" t="n">
-        <v>212.1848800510687</v>
+        <v>217.679569082034</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0503408798673</v>
+        <v>326.9016679464558</v>
       </c>
       <c r="E4" t="n">
         <v>264</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>259.1136719693186</v>
+        <v>259.1136719688666</v>
       </c>
       <c r="C5" t="n">
-        <v>204.5988196073668</v>
+        <v>204.3464584788672</v>
       </c>
       <c r="D5" t="n">
-        <v>319.0071144672899</v>
+        <v>314.6143664924743</v>
       </c>
       <c r="E5" t="n">
         <v>212</v>
@@ -556,19 +556,39 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>249.5959472931666</v>
+        <v>249.5959472930458</v>
       </c>
       <c r="C6" t="n">
-        <v>196.6023653420543</v>
+        <v>195.1951698844526</v>
       </c>
       <c r="D6" t="n">
-        <v>299.0764387420908</v>
+        <v>308.1949240579935</v>
       </c>
       <c r="E6" t="n">
         <v>164</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45033</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B7" t="n">
+        <v>234.4709089654189</v>
+      </c>
+      <c r="C7" t="n">
+        <v>178.6116200236021</v>
+      </c>
+      <c r="D7" t="n">
+        <v>289.7789006709153</v>
+      </c>
+      <c r="E7" t="n">
+        <v>430</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45040</v>
       </c>
     </row>
   </sheetData>
@@ -637,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>44.10481037871851</v>
+        <v>44.10481037286718</v>
       </c>
       <c r="C2" t="n">
-        <v>6.641145261076474</v>
+        <v>6.641145260635938</v>
       </c>
       <c r="D2" t="n">
-        <v>6.641145261076474</v>
+        <v>6.641145260635938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02515585326165331</v>
+        <v>0.02515585325998461</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02515585326165331</v>
+        <v>0.02515585325998461</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02484337511222958</v>
+        <v>0.02484337511060208</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -663,22 +683,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>27747.38765811646</v>
+        <v>27747.38765811604</v>
       </c>
       <c r="C3" t="n">
-        <v>166.5754713579297</v>
+        <v>166.5754713579284</v>
       </c>
       <c r="D3" t="n">
-        <v>166.5754713579297</v>
+        <v>166.5754713579284</v>
       </c>
       <c r="E3" t="n">
-        <v>1.343350575467175</v>
+        <v>1.343350575467165</v>
       </c>
       <c r="F3" t="n">
-        <v>1.343350575467175</v>
+        <v>1.343350575467165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8035954023633702</v>
+        <v>0.8035954023633667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>5672.72792785835</v>
+        <v>5672.727929389632</v>
       </c>
       <c r="C4" t="n">
-        <v>75.31751408443026</v>
+        <v>75.31751409459577</v>
       </c>
       <c r="D4" t="n">
-        <v>75.31751408443026</v>
+        <v>75.31751409459577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2810355003150383</v>
+        <v>0.2810355003529693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2810355003150383</v>
+        <v>0.2810355003529693</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3269823203056774</v>
+        <v>0.326982320357025</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -715,25 +735,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>4773.182139723559</v>
+        <v>15925.99657339779</v>
       </c>
       <c r="C5" t="n">
-        <v>69.08821997796412</v>
+        <v>126.1982431470335</v>
       </c>
       <c r="D5" t="n">
-        <v>66.35480963124262</v>
+        <v>109.4129034321645</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3720804048136156</v>
+        <v>0.3996265419946179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3720804048136156</v>
+        <v>0.454718816359491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3069603709580787</v>
+        <v>0.4008154682174067</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421378/OBAFAR4421378_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421378/OBAFAR4421378_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,10 @@
         <v>290.5754713579284</v>
       </c>
       <c r="C2" t="n">
-        <v>242.4112472126387</v>
+        <v>240.7399203954752</v>
       </c>
       <c r="D2" t="n">
-        <v>341.5214525842456</v>
+        <v>338.9617444153229</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -499,10 +499,10 @@
         <v>192.6824859054042</v>
       </c>
       <c r="C3" t="n">
-        <v>133.7981094912452</v>
+        <v>136.2754891160707</v>
       </c>
       <c r="D3" t="n">
-        <v>244.8327162780473</v>
+        <v>247.6700587848913</v>
       </c>
       <c r="E3" t="n">
         <v>268</v>
@@ -519,10 +519,10 @@
         <v>270.6411452606359</v>
       </c>
       <c r="C4" t="n">
-        <v>217.679569082034</v>
+        <v>213.2176803585218</v>
       </c>
       <c r="D4" t="n">
-        <v>326.9016679464558</v>
+        <v>325.262992273866</v>
       </c>
       <c r="E4" t="n">
         <v>264</v>
@@ -539,10 +539,10 @@
         <v>259.1136719688666</v>
       </c>
       <c r="C5" t="n">
-        <v>204.3464584788672</v>
+        <v>203.1503904407868</v>
       </c>
       <c r="D5" t="n">
-        <v>314.6143664924743</v>
+        <v>315.835157194487</v>
       </c>
       <c r="E5" t="n">
         <v>212</v>
@@ -559,36 +559,16 @@
         <v>249.5959472930458</v>
       </c>
       <c r="C6" t="n">
-        <v>195.1951698844526</v>
+        <v>193.5955157409059</v>
       </c>
       <c r="D6" t="n">
-        <v>308.1949240579935</v>
+        <v>305.3635613705718</v>
       </c>
       <c r="E6" t="n">
         <v>164</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45033</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B7" t="n">
-        <v>234.4709089654189</v>
-      </c>
-      <c r="C7" t="n">
-        <v>178.6116200236021</v>
-      </c>
-      <c r="D7" t="n">
-        <v>289.7789006709153</v>
-      </c>
-      <c r="E7" t="n">
-        <v>430</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45040</v>
       </c>
     </row>
   </sheetData>
@@ -735,25 +715,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>15925.99657339779</v>
+        <v>4773.182139691923</v>
       </c>
       <c r="C5" t="n">
-        <v>126.1982431470335</v>
+        <v>69.08821997773515</v>
       </c>
       <c r="D5" t="n">
-        <v>109.4129034321645</v>
+        <v>66.35480963095623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3996265419946179</v>
+        <v>0.3720804048121813</v>
       </c>
       <c r="F5" t="n">
-        <v>0.454718816359491</v>
+        <v>0.3720804048121813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4008154682174067</v>
+        <v>0.3069603709569836</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
